--- a/dist/wiat_template.xlsx
+++ b/dist/wiat_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47515DC5-A52B-4FC1-B1F7-745834708C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B7FB2-D323-4C1E-BA8B-4E615819862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="182">
   <si>
     <t>Assessment name</t>
   </si>
@@ -707,6 +707,30 @@
   </si>
   <si>
     <t>Fill in only the desired fields (unless mandatory) from the template and upload the file to the  WIAT tool. If a field is left blank, the default value will be 0.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Level of certainty:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0 --&gt; No data, 1 --&gt; Modeled, 
+2 --&gt; Estimated, 3 --&gt; User data</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -832,7 +856,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -927,6 +951,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -937,7 +976,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -986,39 +1025,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1028,22 +1034,49 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1060,19 +1093,28 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1398,7 +1440,7 @@
   <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1427,7 +1469,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="23"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1481,7 @@
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="23"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1451,16 +1493,16 @@
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="72.5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="31" t="s">
         <v>174</v>
       </c>
       <c r="E5" s="4"/>
@@ -1470,59 +1512,61 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="53.5" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="17"/>
       <c r="F6" s="4"/>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="130.5">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="1:9" ht="131" thickBot="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="4"/>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="53" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="130.5">
-      <c r="A8" s="39"/>
-      <c r="B8" s="41" t="s">
+    <row r="8" spans="1:9" ht="131" thickBot="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="54" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="58">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="31" t="s">
         <v>173</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -1531,12 +1575,12 @@
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="72.5">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="31" t="s">
         <v>175</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1545,12 +1589,12 @@
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="72.5">
-      <c r="A11" s="39"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="31" t="s">
         <v>175</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -1559,12 +1603,12 @@
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="31" t="s">
         <v>175</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1573,52 +1617,52 @@
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="188.5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="42" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="29" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="58">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="31" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="72.5">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="30" t="s">
         <v>170</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="87">
-      <c r="A16" s="39"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="25" t="s">
         <v>166</v>
       </c>
       <c r="E16" s="4"/>
@@ -1626,14 +1670,14 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="58">
-      <c r="A17" s="39"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="H17" s="18"/>
@@ -1722,7 +1766,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1738,7 +1782,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="43.5">
-      <c r="A3" s="25"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1752,21 +1796,21 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="29">
-      <c r="A4" s="25"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="32" t="s">
         <v>172</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="29">
-      <c r="A5" s="25"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1778,7 +1822,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="29">
-      <c r="A6" s="25"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
@@ -1792,7 +1836,7 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="25"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
@@ -1804,7 +1848,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="29">
-      <c r="A8" s="25"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
@@ -1816,7 +1860,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="25"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
@@ -1830,7 +1874,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="29">
-      <c r="A10" s="25"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="3" t="s">
         <v>74</v>
       </c>
@@ -1844,7 +1888,7 @@
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="29">
-      <c r="A11" s="25"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1858,7 +1902,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="29">
-      <c r="A12" s="25"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
@@ -1872,7 +1916,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="25"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
@@ -1884,7 +1928,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="25"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
@@ -1897,7 +1941,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="25"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
@@ -1909,23 +1953,23 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="43.5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="25" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="37" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1942,7 +1986,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="25"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
@@ -1957,87 +2001,87 @@
       <c r="A19" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="25" t="s">
         <v>94</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="39"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="35"/>
+      <c r="C20" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="43.5">
-      <c r="A21" s="39"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="39"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="35"/>
+      <c r="C22" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="35"/>
+      <c r="C23" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="39"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="35"/>
+      <c r="C24" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="24"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="39"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2046,19 +2090,19 @@
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="39"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="36" t="s">
         <v>150</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2074,7 +2118,7 @@
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="25"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -2086,69 +2130,69 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="39"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="29">
-      <c r="A31" s="39"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="35"/>
+      <c r="C31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="24"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="39"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="35"/>
+      <c r="C32" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="24"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="39"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="35"/>
+      <c r="C33" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="24"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="36" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2164,7 +2208,7 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="29">
-      <c r="A35" s="25"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="1" t="s">
         <v>114</v>
       </c>
@@ -2178,7 +2222,7 @@
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="25"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="1" t="s">
         <v>115</v>
       </c>
@@ -2190,7 +2234,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="29">
-      <c r="A37" s="25"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="1" t="s">
         <v>116</v>
       </c>
@@ -2202,7 +2246,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="25"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="1" t="s">
         <v>117</v>
       </c>
@@ -2214,7 +2258,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="25"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="1" t="s">
         <v>118</v>
       </c>
@@ -2226,7 +2270,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="29">
-      <c r="A40" s="25"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -2238,7 +2282,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="25"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="1" t="s">
         <v>121</v>
       </c>
@@ -2250,52 +2294,52 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="35"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" ht="29">
-      <c r="A43" s="39"/>
-      <c r="B43" s="34" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="24" t="s">
         <v>126</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="39"/>
-      <c r="B44" s="37" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="35"/>
+      <c r="C44" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="24"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="39"/>
-      <c r="B45" s="37" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -2304,7 +2348,7 @@
       <c r="F45" s="20"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="36" t="s">
         <v>154</v>
       </c>
       <c r="B46" s="19" t="s">
@@ -2318,7 +2362,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="25"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="19" t="s">
         <v>130</v>
       </c>
@@ -2330,7 +2374,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" ht="29">
-      <c r="A48" s="25"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="1" t="s">
         <v>131</v>
       </c>
@@ -2342,7 +2386,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" ht="29">
-      <c r="A49" s="25"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
@@ -2354,7 +2398,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="25"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="19" t="s">
         <v>133</v>
       </c>
@@ -2366,115 +2410,115 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="35"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" ht="29">
-      <c r="A52" s="39"/>
-      <c r="B52" s="34" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="35"/>
+      <c r="C52" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="24"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="39"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="39"/>
-      <c r="B54" s="34" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="35"/>
+      <c r="C54" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="24"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" ht="29">
-      <c r="A55" s="39"/>
-      <c r="B55" s="34" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="35"/>
+      <c r="C55" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="24"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="39"/>
-      <c r="B56" s="34" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="35"/>
+      <c r="C56" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="29">
-      <c r="A57" s="39"/>
-      <c r="B57" s="34" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="35"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="29">
-      <c r="A58" s="39"/>
-      <c r="B58" s="34" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="35"/>
+      <c r="C58" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="24"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="39"/>
-      <c r="B59" s="34" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="35"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="37" t="s">
         <v>156</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2488,7 +2532,7 @@
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="29">
-      <c r="A61" s="25"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="1" t="s">
         <v>143</v>
       </c>
@@ -2505,11 +2549,11 @@
       <c r="A62" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="36" t="s">
+      <c r="C62" s="24"/>
+      <c r="D62" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -2518,14 +2562,14 @@
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="39"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="35"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
@@ -2613,7 +2657,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="39" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2622,14 +2666,14 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="32" t="s">
         <v>172</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="30"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
@@ -2641,7 +2685,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="30"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
@@ -2653,7 +2697,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="29">
-      <c r="A5" s="30"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2667,7 +2711,7 @@
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="29"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
@@ -2736,7 +2780,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="39" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2752,7 +2796,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="43.5">
-      <c r="A3" s="30"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="3" t="s">
         <v>164</v>
       </c>
@@ -2766,21 +2810,21 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="29">
-      <c r="A4" s="30"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="32" t="s">
         <v>172</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="29">
-      <c r="A5" s="30"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2794,7 +2838,7 @@
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
@@ -2806,7 +2850,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="29">
-      <c r="A7" s="30"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
@@ -2818,7 +2862,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="3" t="s">
         <v>71</v>
       </c>
@@ -2832,7 +2876,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="29">
-      <c r="A9" s="30"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3" t="s">
         <v>74</v>
       </c>
@@ -2846,7 +2890,7 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="29">
-      <c r="A10" s="30"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
@@ -2860,7 +2904,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="29">
-      <c r="A11" s="30"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
@@ -2874,7 +2918,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
@@ -2886,7 +2930,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="30"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
@@ -2898,7 +2942,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="29"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
@@ -2911,23 +2955,23 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="43.5">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="25" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="51" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2943,7 +2987,7 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="33"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="1" t="s">
         <v>90</v>
       </c>
@@ -2956,90 +3000,90 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="29">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="25" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="35"/>
+      <c r="C19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="24"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="43.5">
-      <c r="A20" s="49"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>98</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="49"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="35"/>
+      <c r="C21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="24"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="49"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="35"/>
+      <c r="C22" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="49"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="35"/>
+      <c r="C23" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="49"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="50"/>
+      <c r="B24" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -3048,19 +3092,19 @@
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="45"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="47" t="s">
         <v>150</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3076,7 +3120,7 @@
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A27" s="27"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="1" t="s">
         <v>105</v>
       </c>
@@ -3088,69 +3132,69 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="47"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="29">
-      <c r="A30" s="47"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="35"/>
+      <c r="C30" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="47"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="35"/>
+      <c r="C31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="24"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="48"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="35"/>
+      <c r="C32" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="24"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="47" t="s">
         <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3166,7 +3210,7 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="29">
-      <c r="A34" s="31"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
@@ -3180,7 +3224,7 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="31"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="1" t="s">
         <v>115</v>
       </c>
@@ -3192,7 +3236,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="29">
-      <c r="A36" s="31"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="1" t="s">
         <v>116</v>
       </c>
@@ -3204,7 +3248,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="31"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
@@ -3216,7 +3260,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="31"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="1" t="s">
         <v>118</v>
       </c>
@@ -3228,7 +3272,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="29">
-      <c r="A39" s="31"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="1" t="s">
         <v>119</v>
       </c>
@@ -3240,7 +3284,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="27"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="1" t="s">
         <v>121</v>
       </c>
@@ -3252,52 +3296,52 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="35"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="29">
-      <c r="A42" s="47"/>
-      <c r="B42" s="34" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="24" t="s">
         <v>126</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="47"/>
-      <c r="B43" s="37" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="35"/>
+      <c r="C43" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="24"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="48"/>
-      <c r="B44" s="37" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -3306,7 +3350,7 @@
       <c r="F44" s="20"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="36" t="s">
         <v>168</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -3320,7 +3364,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A46" s="25"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="19" t="s">
         <v>130</v>
       </c>
@@ -3332,7 +3376,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" ht="29">
-      <c r="A47" s="25"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -3344,7 +3388,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" ht="29">
-      <c r="A48" s="25"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
@@ -3356,7 +3400,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="25"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="19" t="s">
         <v>133</v>
       </c>
@@ -3368,115 +3412,115 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="35"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" ht="29">
-      <c r="A51" s="39"/>
-      <c r="B51" s="34" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="35"/>
+      <c r="C51" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="24"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="39"/>
-      <c r="B52" s="34" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="39"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="35"/>
+      <c r="C53" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="24"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" ht="29">
-      <c r="A54" s="39"/>
-      <c r="B54" s="34" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="35"/>
+      <c r="C54" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="24"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="39"/>
-      <c r="B55" s="34" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="35"/>
+      <c r="C55" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="24"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" ht="29">
-      <c r="A56" s="39"/>
-      <c r="B56" s="34" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="35"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="29">
-      <c r="A57" s="39"/>
-      <c r="B57" s="34" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="35"/>
+      <c r="C57" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="24"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="39"/>
-      <c r="B58" s="34" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="35"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3490,7 +3534,7 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="29">
-      <c r="A60" s="29"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="1" t="s">
         <v>143</v>
       </c>
@@ -3504,14 +3548,14 @@
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="29">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36" t="s">
+      <c r="C61" s="24"/>
+      <c r="D61" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -3520,14 +3564,14 @@
       <c r="F61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="34" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="35"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
@@ -3536,17 +3580,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A50:A58"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/dist/wiat_template.xlsx
+++ b/dist/wiat_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B7FB2-D323-4C1E-BA8B-4E615819862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6878C23C-4916-4F16-ABC5-AC0E4B57A5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
   </bookViews>
   <sheets>
     <sheet name="INDUSTRY" sheetId="1" r:id="rId1"/>
@@ -728,8 +728,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 0 --&gt; No data, 1 --&gt; Modeled, 
-2 --&gt; Estimated, 3 --&gt; User data</t>
+      <t xml:space="preserve"> 
+0 --&gt; No data (insufficient data)
+1 --&gt; Estimated (data estimated based on similar industries and/or professional experience)
+2 --&gt; Modeled (data that you have extracted from a scientific model. It would typically be more accurate than estimated data, and less accurate than measured data)
+3 --&gt; User data (measured)</t>
     </r>
   </si>
 </sst>
@@ -976,7 +979,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1054,6 +1057,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,45 +1087,40 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -1439,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D97F1C-3547-4525-AD16-36CC009A61DF}">
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1469,7 +1473,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="34"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1485,7 @@
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1493,7 +1497,7 @@
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="72.5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -1512,7 +1516,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="53.5" customHeight="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +1531,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="131" thickBot="1">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="28" t="s">
         <v>5</v>
       </c>
@@ -1539,12 +1543,12 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="4"/>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="34" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="131" thickBot="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="28" t="s">
         <v>50</v>
       </c>
@@ -1556,12 +1560,12 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="17"/>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="35" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="58">
-      <c r="A9" s="35"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="28" t="s">
         <v>52</v>
       </c>
@@ -1573,9 +1577,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="20"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" ht="72.5">
-      <c r="A10" s="35"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="28" t="s">
         <v>7</v>
       </c>
@@ -1589,7 +1594,7 @@
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="72.5">
-      <c r="A11" s="35"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="28" t="s">
         <v>158</v>
       </c>
@@ -1603,7 +1608,7 @@
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1">
-      <c r="A12" s="35"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="28" t="s">
         <v>159</v>
       </c>
@@ -1617,7 +1622,7 @@
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="188.5">
-      <c r="A13" s="35"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="28" t="s">
         <v>160</v>
       </c>
@@ -1629,7 +1634,7 @@
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="58">
-      <c r="A14" s="35"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="28" t="s">
         <v>161</v>
       </c>
@@ -1643,7 +1648,7 @@
       <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="72.5">
-      <c r="A15" s="35"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="28" t="s">
         <v>165</v>
       </c>
@@ -1655,7 +1660,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="87">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="23" t="s">
         <v>55</v>
       </c>
@@ -1670,7 +1675,7 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="58">
-      <c r="A17" s="35"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="23" t="s">
         <v>60</v>
       </c>
@@ -1766,7 +1771,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1782,7 +1787,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="43.5">
-      <c r="A3" s="37"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1796,7 +1801,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="29">
-      <c r="A4" s="37"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1810,7 +1815,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="29">
-      <c r="A5" s="37"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1822,7 +1827,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="29">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
@@ -1836,7 +1841,7 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
@@ -1848,7 +1853,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="29">
-      <c r="A8" s="37"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
@@ -1860,7 +1865,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
@@ -1874,7 +1879,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="29">
-      <c r="A10" s="37"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="3" t="s">
         <v>74</v>
       </c>
@@ -1888,7 +1893,7 @@
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="29">
-      <c r="A11" s="37"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1902,7 +1907,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="29">
-      <c r="A12" s="37"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
@@ -1916,7 +1921,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="37"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
@@ -1928,7 +1933,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="37"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
@@ -1941,7 +1946,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="37"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
@@ -1969,7 +1974,7 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1986,7 +1991,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="37"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
@@ -1998,7 +2003,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="29">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="40" t="s">
         <v>148</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -2014,7 +2019,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="35"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="23" t="s">
         <v>95</v>
       </c>
@@ -2026,7 +2031,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="43.5">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="23" t="s">
         <v>97</v>
       </c>
@@ -2040,7 +2045,7 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="35"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
@@ -2052,7 +2057,7 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="23" t="s">
         <v>100</v>
       </c>
@@ -2064,7 +2069,7 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="35"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="23" t="s">
         <v>101</v>
       </c>
@@ -2076,7 +2081,7 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="35"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="23" t="s">
         <v>102</v>
       </c>
@@ -2090,7 +2095,7 @@
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="23" t="s">
         <v>103</v>
       </c>
@@ -2102,7 +2107,7 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="38" t="s">
         <v>150</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2118,7 +2123,7 @@
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="37"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="1" t="s">
         <v>105</v>
       </c>
@@ -2130,7 +2135,7 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="37" t="s">
         <v>151</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -2144,7 +2149,7 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="23" t="s">
         <v>107</v>
       </c>
@@ -2156,7 +2161,7 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="29">
-      <c r="A31" s="35"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="23" t="s">
         <v>109</v>
       </c>
@@ -2168,7 +2173,7 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="23" t="s">
         <v>110</v>
       </c>
@@ -2180,7 +2185,7 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="35"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="23" t="s">
         <v>111</v>
       </c>
@@ -2192,7 +2197,7 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="38" t="s">
         <v>152</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2208,7 +2213,7 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="29">
-      <c r="A35" s="37"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="1" t="s">
         <v>114</v>
       </c>
@@ -2222,7 +2227,7 @@
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="37"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="1" t="s">
         <v>115</v>
       </c>
@@ -2234,7 +2239,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="29">
-      <c r="A37" s="37"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="1" t="s">
         <v>116</v>
       </c>
@@ -2246,7 +2251,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="37"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="1" t="s">
         <v>117</v>
       </c>
@@ -2258,7 +2263,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="37"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="1" t="s">
         <v>118</v>
       </c>
@@ -2270,7 +2275,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="29">
-      <c r="A40" s="37"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -2282,7 +2287,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="37"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="1" t="s">
         <v>121</v>
       </c>
@@ -2294,7 +2299,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="37" t="s">
         <v>153</v>
       </c>
       <c r="B42" s="26" t="s">
@@ -2308,7 +2313,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" ht="29">
-      <c r="A43" s="35"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="23" t="s">
         <v>124</v>
       </c>
@@ -2322,7 +2327,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="35"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="26" t="s">
         <v>128</v>
       </c>
@@ -2334,7 +2339,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="35"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="26" t="s">
         <v>127</v>
       </c>
@@ -2348,7 +2353,7 @@
       <c r="F45" s="20"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="38" t="s">
         <v>154</v>
       </c>
       <c r="B46" s="19" t="s">
@@ -2362,7 +2367,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="37"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="19" t="s">
         <v>130</v>
       </c>
@@ -2374,7 +2379,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" ht="29">
-      <c r="A48" s="37"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="1" t="s">
         <v>131</v>
       </c>
@@ -2386,7 +2391,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" ht="29">
-      <c r="A49" s="37"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="1" t="s">
         <v>132</v>
       </c>
@@ -2398,7 +2403,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="37"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="19" t="s">
         <v>133</v>
       </c>
@@ -2410,7 +2415,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="37" t="s">
         <v>155</v>
       </c>
       <c r="B51" s="26" t="s">
@@ -2424,7 +2429,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" ht="29">
-      <c r="A52" s="35"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="23" t="s">
         <v>135</v>
       </c>
@@ -2436,7 +2441,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="35"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="23" t="s">
         <v>136</v>
       </c>
@@ -2446,7 +2451,7 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="35"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="23" t="s">
         <v>137</v>
       </c>
@@ -2458,7 +2463,7 @@
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" ht="29">
-      <c r="A55" s="35"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="23" t="s">
         <v>138</v>
       </c>
@@ -2470,7 +2475,7 @@
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="35"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="23" t="s">
         <v>139</v>
       </c>
@@ -2482,7 +2487,7 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="29">
-      <c r="A57" s="35"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="23" t="s">
         <v>140</v>
       </c>
@@ -2494,7 +2499,7 @@
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="29">
-      <c r="A58" s="35"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="23" t="s">
         <v>132</v>
       </c>
@@ -2506,7 +2511,7 @@
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="35"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="23" t="s">
         <v>118</v>
       </c>
@@ -2518,7 +2523,7 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2532,7 +2537,7 @@
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="29">
-      <c r="A61" s="37"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="1" t="s">
         <v>143</v>
       </c>
@@ -2546,7 +2551,7 @@
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" ht="29">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="40" t="s">
         <v>157</v>
       </c>
       <c r="B62" s="23" t="s">
@@ -2562,7 +2567,7 @@
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="35"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="23" t="s">
         <v>105</v>
       </c>
@@ -2657,7 +2662,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2673,7 +2678,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="40"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
@@ -2685,7 +2690,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
@@ -2697,7 +2702,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="29">
-      <c r="A5" s="40"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2711,7 +2716,7 @@
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="41"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
@@ -2780,7 +2785,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2796,7 +2801,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="43.5">
-      <c r="A3" s="40"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="3" t="s">
         <v>164</v>
       </c>
@@ -2810,7 +2815,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="29">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2824,7 +2829,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="29">
-      <c r="A5" s="40"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2843,7 @@
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
@@ -2850,7 +2855,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="29">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
@@ -2862,7 +2867,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="3" t="s">
         <v>71</v>
       </c>
@@ -2876,7 +2881,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="29">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>74</v>
       </c>
@@ -2890,7 +2895,7 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="29">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
@@ -2904,7 +2909,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="29">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
@@ -2918,7 +2923,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="40"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
@@ -2930,7 +2935,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
@@ -2942,7 +2947,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="41"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
@@ -2971,7 +2976,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2987,7 +2992,7 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="52"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="1" t="s">
         <v>90</v>
       </c>
@@ -3000,7 +3005,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="29">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="50" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -3016,7 +3021,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="23" t="s">
         <v>95</v>
       </c>
@@ -3028,7 +3033,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="43.5">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="23" t="s">
         <v>97</v>
       </c>
@@ -3042,7 +3047,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="50"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="23" t="s">
         <v>99</v>
       </c>
@@ -3054,7 +3059,7 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="23" t="s">
         <v>100</v>
       </c>
@@ -3066,7 +3071,7 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="50"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="23" t="s">
         <v>101</v>
       </c>
@@ -3078,7 +3083,7 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="50"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="23" t="s">
         <v>102</v>
       </c>
@@ -3092,7 +3097,7 @@
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="43"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="23" t="s">
         <v>103</v>
       </c>
@@ -3104,7 +3109,7 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="44" t="s">
         <v>150</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3120,7 +3125,7 @@
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A27" s="49"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="1" t="s">
         <v>105</v>
       </c>
@@ -3132,7 +3137,7 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="47" t="s">
         <v>151</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -3146,7 +3151,7 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="23" t="s">
         <v>107</v>
       </c>
@@ -3158,7 +3163,7 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="29">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="23" t="s">
         <v>109</v>
       </c>
@@ -3170,7 +3175,7 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="23" t="s">
         <v>110</v>
       </c>
@@ -3182,7 +3187,7 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="46"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="23" t="s">
         <v>111</v>
       </c>
@@ -3194,7 +3199,7 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="44" t="s">
         <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3210,7 +3215,7 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="29">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
@@ -3224,7 +3229,7 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="48"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="1" t="s">
         <v>115</v>
       </c>
@@ -3236,7 +3241,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="29">
-      <c r="A36" s="48"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="1" t="s">
         <v>116</v>
       </c>
@@ -3248,7 +3253,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="48"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
@@ -3260,7 +3265,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="48"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="1" t="s">
         <v>118</v>
       </c>
@@ -3272,7 +3277,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="29">
-      <c r="A39" s="48"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="1" t="s">
         <v>119</v>
       </c>
@@ -3284,7 +3289,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="49"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="1" t="s">
         <v>121</v>
       </c>
@@ -3296,7 +3301,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="47" t="s">
         <v>153</v>
       </c>
       <c r="B41" s="26" t="s">
@@ -3310,7 +3315,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="29">
-      <c r="A42" s="45"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="23" t="s">
         <v>124</v>
       </c>
@@ -3324,7 +3329,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="26" t="s">
         <v>128</v>
       </c>
@@ -3336,7 +3341,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="46"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="26" t="s">
         <v>127</v>
       </c>
@@ -3350,7 +3355,7 @@
       <c r="F44" s="20"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="38" t="s">
         <v>168</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -3364,7 +3369,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A46" s="37"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="19" t="s">
         <v>130</v>
       </c>
@@ -3376,7 +3381,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" ht="29">
-      <c r="A47" s="37"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -3388,7 +3393,7 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" ht="29">
-      <c r="A48" s="37"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="1" t="s">
         <v>132</v>
       </c>
@@ -3400,7 +3405,7 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="37"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="19" t="s">
         <v>133</v>
       </c>
@@ -3412,7 +3417,7 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="37" t="s">
         <v>155</v>
       </c>
       <c r="B50" s="26" t="s">
@@ -3426,7 +3431,7 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" ht="29">
-      <c r="A51" s="35"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="23" t="s">
         <v>135</v>
       </c>
@@ -3438,7 +3443,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="35"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="23" t="s">
         <v>136</v>
       </c>
@@ -3448,7 +3453,7 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="35"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="23" t="s">
         <v>137</v>
       </c>
@@ -3460,7 +3465,7 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" ht="29">
-      <c r="A54" s="35"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="23" t="s">
         <v>138</v>
       </c>
@@ -3472,7 +3477,7 @@
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="35"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="23" t="s">
         <v>139</v>
       </c>
@@ -3484,7 +3489,7 @@
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" ht="29">
-      <c r="A56" s="35"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="23" t="s">
         <v>140</v>
       </c>
@@ -3496,7 +3501,7 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="29">
-      <c r="A57" s="35"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="23" t="s">
         <v>132</v>
       </c>
@@ -3508,7 +3513,7 @@
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="35"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="23" t="s">
         <v>118</v>
       </c>
@@ -3520,7 +3525,7 @@
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="41" t="s">
         <v>156</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3534,7 +3539,7 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="29">
-      <c r="A60" s="41"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="1" t="s">
         <v>143</v>
       </c>
@@ -3548,7 +3553,7 @@
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="29">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="50" t="s">
         <v>157</v>
       </c>
       <c r="B61" s="23" t="s">
@@ -3564,7 +3569,7 @@
       <c r="F61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A62" s="43"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="23" t="s">
         <v>105</v>
       </c>
@@ -3580,17 +3585,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A41:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/dist/wiat_template.xlsx
+++ b/dist/wiat_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PhpstormProjects\wiat_front\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6878C23C-4916-4F16-ABC5-AC0E4B57A5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FD0B81-4E98-4FB3-94AB-243FB816E9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
   </bookViews>
   <sheets>
     <sheet name="INDUSTRY" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="187">
   <si>
     <t>Assessment name</t>
   </si>
@@ -734,6 +734,22 @@
 2 --&gt; Modeled (data that you have extracted from a scientific model. It would typically be more accurate than estimated data, and less accurate than measured data)
 3 --&gt; User data (measured)</t>
     </r>
+  </si>
+  <si>
+    <t>Latidude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>Add as many suppliers (Name, Latitude, 
+Longitude) as needed to the right (ignore level of certainty)</t>
+  </si>
+  <si>
+    <t>INDUSTRY DEFINITION</t>
   </si>
 </sst>
 </file>
@@ -1087,6 +1103,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1096,31 +1127,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -1441,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D97F1C-3547-4525-AD16-36CC009A61DF}">
-  <dimension ref="A2:I32"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1452,7 +1470,7 @@
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="18.90625" customWidth="1"/>
     <col min="3" max="3" width="43.1796875" customWidth="1"/>
-    <col min="4" max="4" width="31.54296875" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
     <col min="5" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" customWidth="1"/>
     <col min="9" max="9" width="48.90625" customWidth="1"/>
@@ -1473,7 +1491,9 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39" t="s">
+        <v>186</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1496,224 +1516,259 @@
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="72.5">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="36"/>
+      <c r="B5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="36"/>
+      <c r="B6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="54.5" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" ht="72.5">
+      <c r="A8" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B8" s="28" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="I5" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="53.5" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="4"/>
-      <c r="I6" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="131" thickBot="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-      <c r="I7" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="131" thickBot="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>51</v>
+      <c r="D8" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="17"/>
-      <c r="I8" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="58">
+      <c r="F8" s="4"/>
+      <c r="I8" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="53.5" customHeight="1">
       <c r="A9" s="37"/>
       <c r="B9" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" spans="1:9" ht="72.5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="4"/>
+      <c r="I9" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="131" thickBot="1">
       <c r="A10" s="37"/>
       <c r="B10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="72.5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4"/>
+      <c r="I10" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="131" thickBot="1">
       <c r="A11" s="37"/>
       <c r="B11" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="29" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="17"/>
+      <c r="I11" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="58">
       <c r="A12" s="37"/>
       <c r="B12" s="28" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>173</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="188.5">
+    <row r="13" spans="1:9" ht="72.5">
       <c r="A13" s="37"/>
       <c r="B13" s="28" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="C13" s="24"/>
-      <c r="D13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="D13" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="58">
+    <row r="14" spans="1:9" ht="72.5">
       <c r="A14" s="37"/>
       <c r="B14" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>54</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="72.5">
+        <v>175</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="29" customHeight="1">
       <c r="A15" s="37"/>
       <c r="B15" s="28" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="87">
+      <c r="D15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="188.5">
       <c r="A16" s="37"/>
-      <c r="B16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>166</v>
+      <c r="B16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="58">
       <c r="A17" s="37"/>
-      <c r="B17" s="23" t="s">
-        <v>60</v>
+      <c r="B17" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="25"/>
+        <v>54</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>176</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="87">
-      <c r="A18" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>166</v>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="72.5">
+      <c r="A18" s="37"/>
+      <c r="B18" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="H19" s="18"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="87">
+      <c r="A19" s="37"/>
+      <c r="B19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="58">
+      <c r="A20" s="37"/>
+      <c r="B20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="87">
+      <c r="A21" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1724,13 +1779,13 @@
           <x14:formula1>
             <xm:f>Hoja5!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E11</xm:sqref>
+          <xm:sqref>E12:E14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{87702C7D-FEA7-4548-AAEE-A11AD64184A6}">
           <x14:formula1>
             <xm:f>Hoja5!$F$3:$F$27</xm:f>
           </x14:formula1>
-          <xm:sqref>E12</xm:sqref>
+          <xm:sqref>E15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1742,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3699978A-1E09-4AD2-9D2E-EA46A24DCBD2}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -3005,7 +3060,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="29">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="44" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -3021,7 +3076,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="23" t="s">
         <v>95</v>
       </c>
@@ -3033,7 +3088,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="43.5">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="23" t="s">
         <v>97</v>
       </c>
@@ -3047,7 +3102,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="23" t="s">
         <v>99</v>
       </c>
@@ -3059,7 +3114,7 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="23" t="s">
         <v>100</v>
       </c>
@@ -3071,7 +3126,7 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="23" t="s">
         <v>101</v>
       </c>
@@ -3083,7 +3138,7 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="23" t="s">
         <v>102</v>
       </c>
@@ -3097,7 +3152,7 @@
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="52"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="23" t="s">
         <v>103</v>
       </c>
@@ -3109,7 +3164,7 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="49" t="s">
         <v>150</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3125,7 +3180,7 @@
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A27" s="46"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="1" t="s">
         <v>105</v>
       </c>
@@ -3137,7 +3192,7 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>151</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -3151,7 +3206,7 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="48"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="23" t="s">
         <v>107</v>
       </c>
@@ -3163,7 +3218,7 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="29">
-      <c r="A30" s="48"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="23" t="s">
         <v>109</v>
       </c>
@@ -3175,7 +3230,7 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="48"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="23" t="s">
         <v>110</v>
       </c>
@@ -3187,7 +3242,7 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="49"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="23" t="s">
         <v>111</v>
       </c>
@@ -3199,7 +3254,7 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="49" t="s">
         <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3215,7 +3270,7 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="29">
-      <c r="A34" s="45"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
@@ -3229,7 +3284,7 @@
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="45"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="1" t="s">
         <v>115</v>
       </c>
@@ -3241,7 +3296,7 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="29">
-      <c r="A36" s="45"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="1" t="s">
         <v>116</v>
       </c>
@@ -3253,7 +3308,7 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="45"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
@@ -3265,7 +3320,7 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="45"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="1" t="s">
         <v>118</v>
       </c>
@@ -3277,7 +3332,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="29">
-      <c r="A39" s="45"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="1" t="s">
         <v>119</v>
       </c>
@@ -3289,7 +3344,7 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="46"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="1" t="s">
         <v>121</v>
       </c>
@@ -3301,7 +3356,7 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="46" t="s">
         <v>153</v>
       </c>
       <c r="B41" s="26" t="s">
@@ -3315,7 +3370,7 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="29">
-      <c r="A42" s="48"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="23" t="s">
         <v>124</v>
       </c>
@@ -3329,7 +3384,7 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="48"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="26" t="s">
         <v>128</v>
       </c>
@@ -3341,7 +3396,7 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="49"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
         <v>127</v>
       </c>
@@ -3553,7 +3608,7 @@
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="29">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="44" t="s">
         <v>157</v>
       </c>
       <c r="B61" s="23" t="s">
@@ -3569,7 +3624,7 @@
       <c r="F61" s="20"/>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A62" s="52"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="23" t="s">
         <v>105</v>
       </c>
@@ -3585,17 +3640,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A41:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/dist/wiat_template.xlsx
+++ b/dist/wiat_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joans\PhpstormProjects\WIAT_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FD0B81-4E98-4FB3-94AB-243FB816E9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAFD662-49E9-4B8C-8241-20E21CBE4F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
+    <workbookView xWindow="8235" yWindow="2805" windowWidth="28800" windowHeight="15885" activeTab="3" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
   </bookViews>
   <sheets>
     <sheet name="INDUSTRY" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="186">
   <si>
     <t>Assessment name</t>
   </si>
@@ -326,9 +315,6 @@
     <t>g/m3</t>
   </si>
   <si>
-    <t>Add concentration of each pollutant to the right, one at each cell, in the same order than the pollutants added to the industry</t>
-  </si>
-  <si>
     <t>Fuel type (engines)</t>
   </si>
   <si>
@@ -576,9 +562,6 @@
   <si>
     <t>Add contaminants in
 the industry</t>
-  </si>
-  <si>
-    <t>To the right, add the first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the industry</t>
   </si>
   <si>
     <t>Sludge sent to land application (dry weight)</t>
@@ -750,6 +733,9 @@
   </si>
   <si>
     <t>INDUSTRY DEFINITION</t>
+  </si>
+  <si>
+    <t>To the right, add first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the industry</t>
   </si>
 </sst>
 </file>
@@ -995,7 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1079,6 +1065,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,9 +1077,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1135,9 +1121,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1461,19 +1444,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D97F1C-3547-4525-AD16-36CC009A61DF}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A16" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
-    <col min="9" max="9" width="48.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -1487,74 +1470,74 @@
         <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="39" t="s">
-        <v>186</v>
+      <c r="A3" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="54.5" customHeight="1">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:9" ht="54.6" customHeight="1">
+      <c r="A7" s="37"/>
       <c r="B7" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="55" t="s">
-        <v>185</v>
+      <c r="D7" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="72.5">
-      <c r="A8" s="37" t="s">
-        <v>169</v>
+    <row r="8" spans="1:9" ht="75">
+      <c r="A8" s="38" t="s">
+        <v>167</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>3</v>
@@ -1563,16 +1546,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="I8" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="53.5" customHeight="1">
-      <c r="A9" s="37"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="53.45" customHeight="1">
+      <c r="A9" s="38"/>
       <c r="B9" s="28" t="s">
         <v>4</v>
       </c>
@@ -1583,11 +1566,11 @@
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
       <c r="I9" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="131" thickBot="1">
-      <c r="A10" s="37"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="135.75" thickBot="1">
+      <c r="A10" s="38"/>
       <c r="B10" s="28" t="s">
         <v>5</v>
       </c>
@@ -1600,11 +1583,11 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
       <c r="I10" s="34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="131" thickBot="1">
-      <c r="A11" s="37"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135.75" thickBot="1">
+      <c r="A11" s="38"/>
       <c r="B11" s="28" t="s">
         <v>50</v>
       </c>
@@ -1617,69 +1600,69 @@
       <c r="E11" s="4"/>
       <c r="F11" s="17"/>
       <c r="I11" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="58">
-      <c r="A12" s="37"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="A12" s="38"/>
       <c r="B12" s="28" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="72.5">
-      <c r="A13" s="37"/>
+    <row r="13" spans="1:9" ht="90">
+      <c r="A13" s="38"/>
       <c r="B13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="72.5">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:9" ht="75">
+      <c r="A14" s="38"/>
       <c r="B14" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="29" customHeight="1">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:9" ht="29.1" customHeight="1">
+      <c r="A15" s="38"/>
       <c r="B15" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="188.5">
-      <c r="A16" s="37"/>
+    <row r="16" spans="1:9" ht="195">
+      <c r="A16" s="38"/>
       <c r="B16" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="29" t="s">
@@ -1688,34 +1671,34 @@
       <c r="E16" s="4"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:8" ht="58">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:8" ht="60">
+      <c r="A17" s="38"/>
       <c r="B17" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:8" ht="72.5">
-      <c r="A18" s="37"/>
+    <row r="18" spans="1:8" ht="75">
+      <c r="A18" s="38"/>
       <c r="B18" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="87">
-      <c r="A19" s="37"/>
+    <row r="19" spans="1:8" ht="90">
+      <c r="A19" s="38"/>
       <c r="B19" s="23" t="s">
         <v>55</v>
       </c>
@@ -1723,14 +1706,14 @@
         <v>56</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="58">
-      <c r="A20" s="37"/>
+    <row r="20" spans="1:8" ht="60">
+      <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
         <v>60</v>
       </c>
@@ -1742,9 +1725,9 @@
       <c r="F20" s="4"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="87">
+    <row r="21" spans="1:8" ht="90">
       <c r="A21" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>57</v>
@@ -1753,7 +1736,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1797,18 +1780,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3699978A-1E09-4AD2-9D2E-EA46A24DCBD2}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="27.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1822,12 +1805,12 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="39" t="s">
-        <v>169</v>
+      <c r="A2" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
@@ -1841,8 +1824,8 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="43.5">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:7" ht="60">
+      <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1850,13 +1833,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="29">
-      <c r="A4" s="39"/>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="36"/>
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1864,13 +1847,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="29">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1881,8 +1864,8 @@
       <c r="E5" s="17"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="29">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
@@ -1896,7 +1879,7 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="39"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
@@ -1907,8 +1890,8 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="29">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
@@ -1920,7 +1903,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="39"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
@@ -1933,8 +1916,8 @@
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="29">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
         <v>74</v>
       </c>
@@ -1947,8 +1930,8 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="29">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11" s="36"/>
       <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
@@ -1961,8 +1944,8 @@
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="29">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="36"/>
       <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
@@ -1976,7 +1959,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="39"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
@@ -1988,7 +1971,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="39"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="2" t="s">
         <v>84</v>
       </c>
@@ -2001,7 +1984,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="39"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
@@ -2012,9 +1995,9 @@
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="43.5">
+    <row r="16" spans="1:7" ht="60">
       <c r="A16" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>86</v>
@@ -2023,17 +2006,17 @@
         <v>87</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="39" t="s">
-        <v>149</v>
+      <c r="A17" s="36" t="s">
+        <v>148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="16" t="s">
@@ -2046,99 +2029,99 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="39"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="29">
+    <row r="19" spans="1:7" ht="30">
       <c r="A19" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="43.5">
-      <c r="A21" s="37"/>
+    <row r="21" spans="1:7" ht="45">
+      <c r="A21" s="38"/>
       <c r="B21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="37"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="37"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="38"/>
       <c r="B24" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
@@ -2150,23 +2133,23 @@
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="38" t="s">
-        <v>150</v>
+      <c r="A27" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="16" t="s">
@@ -2178,23 +2161,23 @@
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="39"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="37" t="s">
-        <v>151</v>
+      <c r="A29" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>75</v>
@@ -2204,73 +2187,73 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="37"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="29">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="38"/>
       <c r="B31" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="38" t="s">
-        <v>152</v>
+      <c r="A34" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="29">
-      <c r="A35" s="39"/>
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35" s="36"/>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="16" t="s">
@@ -2282,45 +2265,45 @@
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="39"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="29">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="36"/>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="39"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="39"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>83</v>
@@ -2329,36 +2312,36 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="29">
-      <c r="A40" s="39"/>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="36"/>
       <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="39"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="37" t="s">
-        <v>153</v>
+      <c r="A42" s="38" t="s">
+        <v>152</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>75</v>
@@ -2367,36 +2350,36 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="29">
-      <c r="A43" s="37"/>
+    <row r="43" spans="1:6" ht="30">
+      <c r="A43" s="38"/>
       <c r="B43" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="37"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="37"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="25" t="s">
@@ -2408,11 +2391,11 @@
       <c r="F45" s="20"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="38" t="s">
-        <v>154</v>
+      <c r="A46" s="39" t="s">
+        <v>153</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>75</v>
@@ -2422,45 +2405,45 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="39"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="29">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:6" ht="45">
+      <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="29">
-      <c r="A49" s="39"/>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="36"/>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="39"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>83</v>
@@ -2470,11 +2453,11 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="37" t="s">
-        <v>155</v>
+      <c r="A51" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>75</v>
@@ -2483,22 +2466,22 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="29">
-      <c r="A52" s="37"/>
+    <row r="52" spans="1:6" ht="45">
+      <c r="A52" s="38"/>
       <c r="B52" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="37"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -2506,69 +2489,69 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="37"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="29">
-      <c r="A55" s="37"/>
+    <row r="55" spans="1:6" ht="30">
+      <c r="A55" s="38"/>
       <c r="B55" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="37"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="29">
-      <c r="A57" s="37"/>
+    <row r="57" spans="1:6" ht="30">
+      <c r="A57" s="38"/>
       <c r="B57" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="29">
-      <c r="A58" s="37"/>
+    <row r="58" spans="1:6" ht="30">
+      <c r="A58" s="38"/>
       <c r="B58" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="37"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="24" t="s">
         <v>83</v>
@@ -2578,11 +2561,11 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="39" t="s">
-        <v>156</v>
+      <c r="A60" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>75</v>
@@ -2591,26 +2574,26 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="29">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:6" ht="45">
+      <c r="A61" s="36"/>
       <c r="B61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="29">
+    <row r="62" spans="1:6" ht="30">
       <c r="A62" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="25" t="s">
@@ -2622,12 +2605,12 @@
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="37"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="4"/>
@@ -2693,12 +2676,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="5" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2713,21 +2696,21 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="29">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4"/>
@@ -2756,7 +2739,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="29">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -2809,20 +2792,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11597DE-10A8-4946-BDC0-A61DC121839D}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="27.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
-    <col min="8" max="8" width="48.90625" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2836,12 +2819,12 @@
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
@@ -2855,21 +2838,21 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="43.5">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3" s="42"/>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="29">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>62</v>
@@ -2878,12 +2861,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="29">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -2909,7 +2892,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="29">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>69</v>
@@ -2935,7 +2918,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="29">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
         <v>74</v>
@@ -2949,7 +2932,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="29">
+    <row r="10" spans="1:7" ht="45">
       <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
         <v>77</v>
@@ -2963,7 +2946,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="29">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="42"/>
       <c r="B11" s="2" t="s">
         <v>79</v>
@@ -3014,9 +2997,9 @@
       <c r="F14" s="4"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="43.5">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>86</v>
@@ -3025,17 +3008,17 @@
         <v>87</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="16" t="s">
@@ -3049,54 +3032,54 @@
     <row r="17" spans="1:7">
       <c r="A17" s="54"/>
       <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="29">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="14.5" customHeight="1">
+    <row r="19" spans="1:7" ht="14.45" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="43.5">
+    <row r="20" spans="1:7" ht="45">
       <c r="A20" s="52"/>
       <c r="B20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -3104,10 +3087,10 @@
     <row r="21" spans="1:7">
       <c r="A21" s="52"/>
       <c r="B21" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="4"/>
@@ -3116,22 +3099,22 @@
     <row r="22" spans="1:7">
       <c r="A22" s="52"/>
       <c r="B22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" s="52"/>
       <c r="B23" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="4"/>
@@ -3140,7 +3123,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="52"/>
       <c r="B24" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25" t="s">
@@ -3154,10 +3137,10 @@
     <row r="25" spans="1:7">
       <c r="A25" s="45"/>
       <c r="B25" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="4"/>
@@ -3165,10 +3148,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="16" t="s">
@@ -3179,13 +3162,13 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:7" ht="14.5" customHeight="1">
+    <row r="27" spans="1:7" ht="14.45" customHeight="1">
       <c r="A27" s="51"/>
       <c r="B27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
@@ -3193,10 +3176,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>75</v>
@@ -3208,22 +3191,22 @@
     <row r="29" spans="1:7">
       <c r="A29" s="47"/>
       <c r="B29" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="29">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="47"/>
       <c r="B30" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="4"/>
@@ -3232,10 +3215,10 @@
     <row r="31" spans="1:7">
       <c r="A31" s="47"/>
       <c r="B31" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="4"/>
@@ -3244,10 +3227,10 @@
     <row r="32" spans="1:7">
       <c r="A32" s="48"/>
       <c r="B32" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
@@ -3255,24 +3238,24 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="29">
+    <row r="34" spans="1:6" ht="30">
       <c r="A34" s="50"/>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="16" t="s">
@@ -3286,22 +3269,22 @@
     <row r="35" spans="1:6">
       <c r="A35" s="50"/>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="29">
+    <row r="36" spans="1:6" ht="30">
       <c r="A36" s="50"/>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
@@ -3310,10 +3293,10 @@
     <row r="37" spans="1:6">
       <c r="A37" s="50"/>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
@@ -3322,7 +3305,7 @@
     <row r="38" spans="1:6">
       <c r="A38" s="50"/>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>83</v>
@@ -3331,13 +3314,13 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="29">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="50"/>
       <c r="B39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
@@ -3346,10 +3329,10 @@
     <row r="40" spans="1:6">
       <c r="A40" s="51"/>
       <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
@@ -3357,10 +3340,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>75</v>
@@ -3369,16 +3352,16 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="29">
+    <row r="42" spans="1:6" ht="30">
       <c r="A42" s="47"/>
       <c r="B42" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3386,10 +3369,10 @@
     <row r="43" spans="1:6">
       <c r="A43" s="47"/>
       <c r="B43" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="4"/>
@@ -3398,7 +3381,7 @@
     <row r="44" spans="1:6">
       <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25" t="s">
@@ -3410,11 +3393,11 @@
       <c r="F44" s="20"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="38" t="s">
-        <v>168</v>
+      <c r="A45" s="39" t="s">
+        <v>166</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>75</v>
@@ -3423,46 +3406,46 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A46" s="36"/>
       <c r="B46" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="29">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:6" ht="45">
+      <c r="A47" s="36"/>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="29">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="39"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>83</v>
@@ -3472,11 +3455,11 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="37" t="s">
-        <v>155</v>
+      <c r="A50" s="38" t="s">
+        <v>154</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>75</v>
@@ -3485,22 +3468,22 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="29">
-      <c r="A51" s="37"/>
+    <row r="51" spans="1:6" ht="45">
+      <c r="A51" s="38"/>
       <c r="B51" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="37"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -3508,69 +3491,69 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="37"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="29">
-      <c r="A54" s="37"/>
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54" s="38"/>
       <c r="B54" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="37"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="29">
-      <c r="A56" s="37"/>
+    <row r="56" spans="1:6" ht="30">
+      <c r="A56" s="38"/>
       <c r="B56" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="29">
-      <c r="A57" s="37"/>
+    <row r="57" spans="1:6" ht="30">
+      <c r="A57" s="38"/>
       <c r="B57" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="37"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>83</v>
@@ -3581,10 +3564,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>75</v>
@@ -3593,26 +3576,26 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="29">
+    <row r="60" spans="1:6" ht="45">
       <c r="A60" s="43"/>
       <c r="B60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="29">
+    <row r="61" spans="1:6" ht="30">
       <c r="A61" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="25" t="s">
@@ -3623,13 +3606,13 @@
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" ht="14.5" customHeight="1">
+    <row r="62" spans="1:6" ht="14.45" customHeight="1">
       <c r="A62" s="45"/>
       <c r="B62" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="4"/>
@@ -3694,7 +3677,7 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">

--- a/dist/wiat_template.xlsx
+++ b/dist/wiat_template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joans\PhpstormProjects\WIAT_front\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\Desktop\ICRA\WIAT_front\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAFD662-49E9-4B8C-8241-20E21CBE4F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED79067C-CBE2-4F5A-BCFB-A179525C2154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="2805" windowWidth="28800" windowHeight="15885" activeTab="3" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="3" xr2:uid="{A14C6850-7486-4D49-86A3-639AED911610}"/>
   </bookViews>
   <sheets>
-    <sheet name="INDUSTRY" sheetId="1" r:id="rId1"/>
+    <sheet name="SITE" sheetId="1" r:id="rId1"/>
     <sheet name="ONSITE WWTP" sheetId="2" r:id="rId2"/>
     <sheet name="DIRECT DISCHARGE" sheetId="3" r:id="rId3"/>
     <sheet name="EXTERNAL WWTP" sheetId="4" r:id="rId4"/>
@@ -34,25 +34,13 @@
     <t>Assessment name</t>
   </si>
   <si>
-    <t>Industry name</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
-    <t xml:space="preserve">Industry withdrawal water quantity (surface water only) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry withdrawal water quantity (groundwater only) </t>
-  </si>
-  <si>
     <t xml:space="preserve">All other external sources of water from the same watershed from which the water was withdrawn </t>
   </si>
   <si>
     <t>m3/day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the industry directly discharge wastewater effluent (without treatment) into the water body? </t>
   </si>
   <si>
     <t>Explanation / Instructions</t>
@@ -195,29 +183,10 @@
 was withdrawn</t>
   </si>
   <si>
-    <t>Has the industry an on-site wastewater pre-treatment or treatment plant?</t>
-  </si>
-  <si>
-    <t>"Specific water consumption" indicates the amount 
-of water used per what is produced. For example, 
-if the industry produces 1000 products per day, 
-and the water consumption is 1000 m3/day, the 
-specific water consumption is 1 m3/unit of product 
-produced. The unit of product produced can 
-be anything, e.g. $, kg, m3, etc</t>
-  </si>
-  <si>
     <t>Specified before</t>
   </si>
   <si>
-    <t>Concentration of pollutants in the water used by the industry and before 
-being treated in a WWTP)</t>
-  </si>
-  <si>
     <t>g/m3 of pollutant</t>
-  </si>
-  <si>
-    <t>Concentration of pollutants in the industry withdrawal water (surface water only)</t>
   </si>
   <si>
     <t>°C</t>
@@ -533,10 +502,6 @@
 DISPOSAL SITE</t>
   </si>
   <si>
-    <t xml:space="preserve">Does the industry discharge
-to an off-site treatment wastewater plant? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Standard industrial
 classification </t>
   </si>
@@ -554,14 +519,6 @@
   <si>
     <t xml:space="preserve">Volume of water discharged to water body every day 
 (direct discharge of untreated water) </t>
-  </si>
-  <si>
-    <t>Volume of industrial wastewater sent to the 
-offsite WWTP every day</t>
-  </si>
-  <si>
-    <t>Add contaminants in
-the industry</t>
   </si>
   <si>
     <t>Sludge sent to land application (dry weight)</t>
@@ -652,8 +609,88 @@
     </r>
   </si>
   <si>
+    <t>WIAT TEMPLATE -- INSTRUCTIONS</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Portion of the industry wastewater generation treated 
+      <t xml:space="preserve">A cell like this indicates that the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level of certainty is not 
+needed</t>
+    </r>
+  </si>
+  <si>
+    <t>Fill in only the desired fields (unless mandatory) from the template and upload the file to the  WIAT tool. If a field is left blank, the default value will be 0.</t>
+  </si>
+  <si>
+    <t>Latidude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Has the site an on-site wastewater pre-treatment or treatment plant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the site directly discharge wastewater effluent (without treatment) into the water body? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the site discharge
+to an off-site treatment wastewater plant? </t>
+  </si>
+  <si>
+    <t>"Specific water consumption" indicates the amount 
+of water used per what is produced. For example, 
+if the site produces 1000 products per day, 
+and the water consumption is 1000 m3/day, the 
+specific water consumption is 1 m3/unit of product 
+produced. The unit of product produced can 
+be anything, e.g. $, kg, m3, etc</t>
+  </si>
+  <si>
+    <t>Concentration of pollutants in the site withdrawal water (surface water only)</t>
+  </si>
+  <si>
+    <t>To the right, add first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the site</t>
+  </si>
+  <si>
+    <t>Site name</t>
+  </si>
+  <si>
+    <t>Sub-suppliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site withdrawal water quantity (surface water only) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site withdrawal water quantity (groundwater only) </t>
+  </si>
+  <si>
+    <t>Add pollutants in
+the site</t>
+  </si>
+  <si>
+    <t>Concentration of pollutants in the water used by the site and before 
+being treated in a WWTP)</t>
+  </si>
+  <si>
+    <t>SITE DEFINITION</t>
+  </si>
+  <si>
+    <t>Add as many sub-suppliers (Name, Latitude, 
+Longitude) as needed to the right (ignore level of certainty)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Portion of the site wastewater generation treated 
 in an onsite WWTP
 </t>
     </r>
@@ -670,26 +707,8 @@
     </r>
   </si>
   <si>
-    <t>WIAT TEMPLATE -- INSTRUCTIONS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A cell like this indicates that the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>level of certainty is not 
-needed</t>
-    </r>
-  </si>
-  <si>
-    <t>Fill in only the desired fields (unless mandatory) from the template and upload the file to the  WIAT tool. If a field is left blank, the default value will be 0.</t>
+    <t>Volume of site wastewater sent to the 
+offsite WWTP every day</t>
   </si>
   <si>
     <r>
@@ -713,29 +732,10 @@
       </rPr>
       <t xml:space="preserve"> 
 0 --&gt; No data (insufficient data)
-1 --&gt; Estimated (data estimated based on similar industries and/or professional experience)
+1 --&gt; Estimated (data estimated based on similar sites and/or professional experience)
 2 --&gt; Modeled (data that you have extracted from a scientific model. It would typically be more accurate than estimated data, and less accurate than measured data)
 3 --&gt; User data (measured)</t>
     </r>
-  </si>
-  <si>
-    <t>Latidude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Suppliers</t>
-  </si>
-  <si>
-    <t>Add as many suppliers (Name, Latitude, 
-Longitude) as needed to the right (ignore level of certainty)</t>
-  </si>
-  <si>
-    <t>INDUSTRY DEFINITION</t>
-  </si>
-  <si>
-    <t>To the right, add first the concentration and then its level of certainty (one at each cell), and as many times as needed, in the same order that the pollutants added to the industry</t>
   </si>
 </sst>
 </file>
@@ -1444,45 +1444,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D97F1C-3547-4525-AD16-36CC009A61DF}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="E9" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
       <c r="C2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="36" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="20"/>
@@ -1490,11 +1490,11 @@
     <row r="4" spans="1:9">
       <c r="A4" s="37"/>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
@@ -1502,11 +1502,11 @@
     <row r="5" spans="1:9">
       <c r="A5" s="37"/>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
@@ -1514,229 +1514,229 @@
     <row r="6" spans="1:9">
       <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="54.6" customHeight="1">
+    <row r="7" spans="1:9" ht="54.65" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="75">
+    <row r="8" spans="1:9" ht="72.5">
       <c r="A8" s="38" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" s="31" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="I8" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="53.45" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="53.5" customHeight="1">
       <c r="A9" s="38"/>
       <c r="B9" s="28" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
       <c r="I9" s="33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="135.75" thickBot="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="131" thickBot="1">
       <c r="A10" s="38"/>
       <c r="B10" s="28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
       <c r="I10" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="135.75" thickBot="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="131" thickBot="1">
       <c r="A11" s="38"/>
       <c r="B11" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="17"/>
       <c r="I11" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="58">
       <c r="A12" s="38"/>
       <c r="B12" s="28" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="31" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="90">
+    <row r="13" spans="1:9" ht="72.5">
       <c r="A13" s="38"/>
       <c r="B13" s="28" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="31" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="75">
+    <row r="14" spans="1:9" ht="72.5">
       <c r="A14" s="38"/>
       <c r="B14" s="28" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="31" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="29.1" customHeight="1">
+    <row r="15" spans="1:9" ht="29.15" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="28" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="31" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="195">
+    <row r="16" spans="1:9" ht="188.5">
       <c r="A16" s="38"/>
       <c r="B16" s="28" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="29" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:8" ht="60">
+    <row r="17" spans="1:8" ht="58">
       <c r="A17" s="38"/>
       <c r="B17" s="28" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:8" ht="75">
+    <row r="18" spans="1:8" ht="72.5">
       <c r="A18" s="38"/>
       <c r="B18" s="28" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="30" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="90">
+    <row r="19" spans="1:8" ht="87">
       <c r="A19" s="38"/>
       <c r="B19" s="23" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="60">
+    <row r="20" spans="1:8" ht="58">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="90">
+    <row r="21" spans="1:8" ht="72.5">
       <c r="A21" s="21" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1780,123 +1780,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3699978A-1E09-4AD2-9D2E-EA46A24DCBD2}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="36" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="60">
+    <row r="3" spans="1:7" ht="43.5">
       <c r="A3" s="36"/>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="29">
       <c r="A4" s="36"/>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="29">
       <c r="A5" s="36"/>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="17"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="29">
       <c r="A6" s="36"/>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="36"/>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="29">
       <c r="A8" s="36"/>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="17"/>
@@ -1905,55 +1905,55 @@
     <row r="9" spans="1:7">
       <c r="A9" s="36"/>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="29">
       <c r="A10" s="36"/>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="45">
+    <row r="11" spans="1:7" ht="29">
       <c r="A11" s="36"/>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="29">
       <c r="A12" s="36"/>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
@@ -1961,10 +1961,10 @@
     <row r="13" spans="1:7">
       <c r="A13" s="36"/>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="17"/>
@@ -1973,10 +1973,10 @@
     <row r="14" spans="1:7">
       <c r="A14" s="36"/>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="17"/>
@@ -1986,44 +1986,44 @@
     <row r="15" spans="1:7">
       <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="60">
+    <row r="16" spans="1:7" ht="58">
       <c r="A16" s="27" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="36" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="18"/>
@@ -2031,27 +2031,27 @@
     <row r="18" spans="1:7">
       <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="29">
       <c r="A19" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2059,25 +2059,25 @@
     <row r="20" spans="1:7">
       <c r="A20" s="38"/>
       <c r="B20" s="23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="45">
+    <row r="21" spans="1:7" ht="43.5">
       <c r="A21" s="38"/>
       <c r="B21" s="23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2085,10 +2085,10 @@
     <row r="22" spans="1:7">
       <c r="A22" s="38"/>
       <c r="B22" s="23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
@@ -2097,22 +2097,22 @@
     <row r="23" spans="1:7">
       <c r="A23" s="38"/>
       <c r="B23" s="23" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7">
       <c r="A24" s="38"/>
       <c r="B24" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="4"/>
@@ -2121,24 +2121,24 @@
     <row r="25" spans="1:7">
       <c r="A25" s="38"/>
       <c r="B25" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="38"/>
       <c r="B26" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="4"/>
@@ -2146,27 +2146,27 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="39" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="36"/>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
@@ -2174,13 +2174,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="38" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="4"/>
@@ -2189,22 +2189,22 @@
     <row r="30" spans="1:7">
       <c r="A30" s="38"/>
       <c r="B30" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7" ht="29">
       <c r="A31" s="38"/>
       <c r="B31" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="4"/>
@@ -2213,10 +2213,10 @@
     <row r="32" spans="1:7">
       <c r="A32" s="38"/>
       <c r="B32" s="23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
@@ -2225,10 +2225,10 @@
     <row r="33" spans="1:6">
       <c r="A33" s="38"/>
       <c r="B33" s="23" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="4"/>
@@ -2236,53 +2236,53 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="39" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="29">
       <c r="A35" s="36"/>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="36"/>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="30">
+    <row r="37" spans="1:6" ht="29">
       <c r="A37" s="36"/>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
@@ -2291,10 +2291,10 @@
     <row r="38" spans="1:6">
       <c r="A38" s="36"/>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
@@ -2303,22 +2303,22 @@
     <row r="39" spans="1:6">
       <c r="A39" s="36"/>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="29">
       <c r="A40" s="36"/>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
@@ -2327,10 +2327,10 @@
     <row r="41" spans="1:6">
       <c r="A41" s="36"/>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
@@ -2338,28 +2338,28 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="38" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6" ht="29">
       <c r="A43" s="38"/>
       <c r="B43" s="23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2367,10 +2367,10 @@
     <row r="44" spans="1:6">
       <c r="A44" s="38"/>
       <c r="B44" s="26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="4"/>
@@ -2379,26 +2379,26 @@
     <row r="45" spans="1:6">
       <c r="A45" s="38"/>
       <c r="B45" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F45" s="20"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="39" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
@@ -2407,34 +2407,34 @@
     <row r="47" spans="1:6">
       <c r="A47" s="36"/>
       <c r="B47" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="45">
+    <row r="48" spans="1:6" ht="29">
       <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="30">
+    <row r="49" spans="1:6" ht="29">
       <c r="A49" s="36"/>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
@@ -2443,10 +2443,10 @@
     <row r="50" spans="1:6">
       <c r="A50" s="36"/>
       <c r="B50" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
@@ -2454,25 +2454,25 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="38" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="45">
+    <row r="52" spans="1:6" ht="29">
       <c r="A52" s="38"/>
       <c r="B52" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="4"/>
@@ -2481,7 +2481,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="38"/>
       <c r="B53" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -2491,22 +2491,22 @@
     <row r="54" spans="1:6">
       <c r="A54" s="38"/>
       <c r="B54" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="30">
+    <row r="55" spans="1:6" ht="29">
       <c r="A55" s="38"/>
       <c r="B55" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="4"/>
@@ -2515,34 +2515,34 @@
     <row r="56" spans="1:6">
       <c r="A56" s="38"/>
       <c r="B56" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="30">
+    <row r="57" spans="1:6" ht="29">
       <c r="A57" s="38"/>
       <c r="B57" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="30">
+    <row r="58" spans="1:6" ht="29">
       <c r="A58" s="38"/>
       <c r="B58" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="4"/>
@@ -2551,10 +2551,10 @@
     <row r="59" spans="1:6">
       <c r="A59" s="38"/>
       <c r="B59" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="4"/>
@@ -2562,55 +2562,55 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="36" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="45">
+    <row r="61" spans="1:6" ht="29">
       <c r="A61" s="36"/>
       <c r="B61" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="30">
+    <row r="62" spans="1:6" ht="29">
       <c r="A62" s="40" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F62" s="20"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="38"/>
       <c r="B63" s="23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="4"/>
@@ -2676,41 +2676,41 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="5" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="47.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="5" width="30.1796875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29">
       <c r="A2" s="41" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4"/>
@@ -2718,10 +2718,10 @@
     <row r="3" spans="1:6">
       <c r="A3" s="42"/>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="17"/>
@@ -2730,36 +2730,36 @@
     <row r="4" spans="1:6">
       <c r="A4" s="42"/>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="29">
       <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="4"/>
@@ -2792,113 +2792,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11597DE-10A8-4946-BDC0-A61DC121839D}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="48.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="8" max="8" width="48.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="41" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="60">
+    <row r="3" spans="1:7" ht="43.5">
       <c r="A3" s="42"/>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="29">
       <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="29">
       <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="42"/>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="29">
       <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="17"/>
@@ -2907,55 +2907,55 @@
     <row r="8" spans="1:7">
       <c r="A8" s="42"/>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="29">
       <c r="A9" s="42"/>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="45">
+    <row r="10" spans="1:7" ht="29">
       <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="29">
       <c r="A11" s="42"/>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="4"/>
@@ -2963,10 +2963,10 @@
     <row r="12" spans="1:7">
       <c r="A12" s="42"/>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
@@ -2975,10 +2975,10 @@
     <row r="13" spans="1:7">
       <c r="A13" s="42"/>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="17"/>
@@ -2987,99 +2987,99 @@
     <row r="14" spans="1:7">
       <c r="A14" s="43"/>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="4"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" spans="1:7" ht="58">
       <c r="A15" s="27" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="53" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="54"/>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:7" ht="29">
       <c r="A18" s="44" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="14.45" customHeight="1">
+    <row r="19" spans="1:7" ht="14.5" customHeight="1">
       <c r="A19" s="52"/>
       <c r="B19" s="23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="45">
+    <row r="20" spans="1:7" ht="43.5">
       <c r="A20" s="52"/>
       <c r="B20" s="23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -3087,10 +3087,10 @@
     <row r="21" spans="1:7">
       <c r="A21" s="52"/>
       <c r="B21" s="23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="4"/>
@@ -3099,22 +3099,22 @@
     <row r="22" spans="1:7">
       <c r="A22" s="52"/>
       <c r="B22" s="23" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="30">
+    <row r="23" spans="1:7">
       <c r="A23" s="52"/>
       <c r="B23" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="4"/>
@@ -3123,24 +3123,24 @@
     <row r="24" spans="1:7">
       <c r="A24" s="52"/>
       <c r="B24" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="45"/>
       <c r="B25" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="4"/>
@@ -3148,27 +3148,27 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="49" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:7" ht="14.45" customHeight="1">
+    <row r="27" spans="1:7" ht="14.5" customHeight="1">
       <c r="A27" s="51"/>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
@@ -3176,13 +3176,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="46" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="4"/>
@@ -3191,22 +3191,22 @@
     <row r="29" spans="1:7">
       <c r="A29" s="47"/>
       <c r="B29" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="30">
+    <row r="30" spans="1:7" ht="29">
       <c r="A30" s="47"/>
       <c r="B30" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="4"/>
@@ -3215,10 +3215,10 @@
     <row r="31" spans="1:7">
       <c r="A31" s="47"/>
       <c r="B31" s="23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="4"/>
@@ -3227,10 +3227,10 @@
     <row r="32" spans="1:7">
       <c r="A32" s="48"/>
       <c r="B32" s="23" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
@@ -3238,53 +3238,53 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="49" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:6" ht="29">
       <c r="A34" s="50"/>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="50"/>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="30">
+    <row r="36" spans="1:6" ht="29">
       <c r="A36" s="50"/>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
@@ -3293,10 +3293,10 @@
     <row r="37" spans="1:6">
       <c r="A37" s="50"/>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
@@ -3305,22 +3305,22 @@
     <row r="38" spans="1:6">
       <c r="A38" s="50"/>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="29">
       <c r="A39" s="50"/>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
@@ -3329,10 +3329,10 @@
     <row r="40" spans="1:6">
       <c r="A40" s="51"/>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
@@ -3340,28 +3340,28 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="46" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="30">
+    <row r="42" spans="1:6" ht="29">
       <c r="A42" s="47"/>
       <c r="B42" s="23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3369,10 +3369,10 @@
     <row r="43" spans="1:6">
       <c r="A43" s="47"/>
       <c r="B43" s="26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="4"/>
@@ -3381,62 +3381,62 @@
     <row r="44" spans="1:6">
       <c r="A44" s="48"/>
       <c r="B44" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F44" s="20"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="39" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="14.45" customHeight="1">
+    <row r="46" spans="1:6" ht="14.5" customHeight="1">
       <c r="A46" s="36"/>
       <c r="B46" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="45">
+    <row r="47" spans="1:6" ht="29">
       <c r="A47" s="36"/>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="30">
+    <row r="48" spans="1:6" ht="29">
       <c r="A48" s="36"/>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
@@ -3445,10 +3445,10 @@
     <row r="49" spans="1:6">
       <c r="A49" s="36"/>
       <c r="B49" s="19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
@@ -3456,25 +3456,25 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="38" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="45">
+    <row r="51" spans="1:6" ht="29">
       <c r="A51" s="38"/>
       <c r="B51" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="4"/>
@@ -3483,7 +3483,7 @@
     <row r="52" spans="1:6">
       <c r="A52" s="38"/>
       <c r="B52" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -3493,22 +3493,22 @@
     <row r="53" spans="1:6">
       <c r="A53" s="38"/>
       <c r="B53" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="30">
+    <row r="54" spans="1:6" ht="29">
       <c r="A54" s="38"/>
       <c r="B54" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="4"/>
@@ -3517,34 +3517,34 @@
     <row r="55" spans="1:6">
       <c r="A55" s="38"/>
       <c r="B55" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="30">
+    <row r="56" spans="1:6" ht="29">
       <c r="A56" s="38"/>
       <c r="B56" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="30">
+    <row r="57" spans="1:6" ht="29">
       <c r="A57" s="38"/>
       <c r="B57" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="4"/>
@@ -3553,10 +3553,10 @@
     <row r="58" spans="1:6">
       <c r="A58" s="38"/>
       <c r="B58" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="4"/>
@@ -3564,55 +3564,55 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="41" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="45">
+    <row r="60" spans="1:6" ht="29">
       <c r="A60" s="43"/>
       <c r="B60" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="30">
+    <row r="61" spans="1:6" ht="29">
       <c r="A61" s="44" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" ht="14.45" customHeight="1">
+    <row r="62" spans="1:6" ht="14.5" customHeight="1">
       <c r="A62" s="45"/>
       <c r="B62" s="23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="4"/>
@@ -3677,182 +3677,182 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="10"/>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:17">
       <c r="F4" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:17">
       <c r="F5" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:17">
       <c r="F6" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:17">
       <c r="F7" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:17">
       <c r="F8" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="F12" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="F13" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="F14" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="F15" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:17">
       <c r="F16" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
